--- a/team_specific_matrix/Ga. Southern_B.xlsx
+++ b/team_specific_matrix/Ga. Southern_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.196551724137931</v>
+        <v>0.1984536082474227</v>
       </c>
       <c r="C2">
-        <v>0.5379310344827586</v>
+        <v>0.5309278350515464</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03448275862068965</v>
+        <v>0.03350515463917526</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1448275862068966</v>
+        <v>0.1494845360824742</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08620689655172414</v>
+        <v>0.08762886597938144</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006289308176100629</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C3">
-        <v>0.02515723270440252</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03773584905660377</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7169811320754716</v>
+        <v>0.7102803738317757</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2138364779874214</v>
+        <v>0.2102803738317757</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03125</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="P4">
-        <v>0.65625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3125</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0847457627118644</v>
+        <v>0.07174887892376682</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01694915254237288</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03954802259887006</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2598870056497175</v>
+        <v>0.2780269058295964</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01694915254237288</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1864406779661017</v>
+        <v>0.1704035874439462</v>
       </c>
       <c r="R6">
-        <v>0.06214689265536723</v>
+        <v>0.05829596412556054</v>
       </c>
       <c r="S6">
-        <v>0.3333333333333333</v>
+        <v>0.3318385650224215</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1510791366906475</v>
+        <v>0.1611111111111111</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.007194244604316547</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="E7">
-        <v>0.01438848920863309</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="F7">
-        <v>0.02877697841726619</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1726618705035971</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007194244604316547</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1438848920863309</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="R7">
-        <v>0.08633093525179857</v>
+        <v>0.09444444444444444</v>
       </c>
       <c r="S7">
-        <v>0.3884892086330936</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1107266435986159</v>
+        <v>0.116710875331565</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01730103806228374</v>
+        <v>0.01856763925729443</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.08304498269896193</v>
+        <v>0.07161803713527852</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1418685121107267</v>
+        <v>0.1352785145888594</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006920415224913495</v>
+        <v>0.007957559681697613</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1868512110726644</v>
+        <v>0.1962864721485411</v>
       </c>
       <c r="R8">
-        <v>0.07612456747404844</v>
+        <v>0.09549071618037135</v>
       </c>
       <c r="S8">
-        <v>0.3771626297577855</v>
+        <v>0.3580901856763926</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1609756097560976</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00975609756097561</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07804878048780488</v>
+        <v>0.06854838709677419</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1024390243902439</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01463414634146342</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1512195121951219</v>
+        <v>0.157258064516129</v>
       </c>
       <c r="R9">
-        <v>0.1073170731707317</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="S9">
-        <v>0.375609756097561</v>
+        <v>0.3911290322580645</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1284755512943432</v>
+        <v>0.1384959046909903</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02109300095877277</v>
+        <v>0.02159344750558451</v>
       </c>
       <c r="E10">
-        <v>0.0009587727708533077</v>
+        <v>0.0007446016381236039</v>
       </c>
       <c r="F10">
-        <v>0.05944391179290508</v>
+        <v>0.05956813104988831</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1476510067114094</v>
+        <v>0.1422189128816083</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009587727708533078</v>
+        <v>0.01116902457185406</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1917545541706616</v>
+        <v>0.197319434102755</v>
       </c>
       <c r="R10">
-        <v>0.08724832214765101</v>
+        <v>0.08116157855547282</v>
       </c>
       <c r="S10">
-        <v>0.3537871524448706</v>
+        <v>0.347728965003723</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.005076142131979695</v>
+        <v>0.003787878787878788</v>
       </c>
       <c r="G11">
-        <v>0.1573604060913706</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06598984771573604</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K11">
-        <v>0.182741116751269</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="L11">
-        <v>0.5583756345177665</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03045685279187817</v>
+        <v>0.03409090909090909</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7741935483870968</v>
+        <v>0.7707006369426752</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1693548387096774</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="K12">
-        <v>0.008064516129032258</v>
+        <v>0.006369426751592357</v>
       </c>
       <c r="L12">
-        <v>0.01612903225806452</v>
+        <v>0.01273885350318471</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03225806451612903</v>
+        <v>0.02547770700636943</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285714</v>
+        <v>0.6097560975609756</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3428571428571429</v>
+        <v>0.3170731707317073</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08571428571428572</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01526717557251908</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1679389312977099</v>
+        <v>0.15</v>
       </c>
       <c r="I15">
-        <v>0.1145038167938931</v>
+        <v>0.1</v>
       </c>
       <c r="J15">
-        <v>0.4351145038167939</v>
+        <v>0.4388888888888889</v>
       </c>
       <c r="K15">
-        <v>0.04580152671755725</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.02290076335877863</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03816793893129771</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1603053435114504</v>
+        <v>0.1777777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02890173410404624</v>
+        <v>0.03418803418803419</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1791907514450867</v>
+        <v>0.1837606837606838</v>
       </c>
       <c r="I16">
-        <v>0.09826589595375723</v>
+        <v>0.09829059829059829</v>
       </c>
       <c r="J16">
-        <v>0.3699421965317919</v>
+        <v>0.3632478632478632</v>
       </c>
       <c r="K16">
-        <v>0.115606936416185</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0115606936416185</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03468208092485549</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.161849710982659</v>
+        <v>0.1452991452991453</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008902077151335312</v>
+        <v>0.009111617312072893</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1394658753709199</v>
+        <v>0.1526195899772209</v>
       </c>
       <c r="I17">
-        <v>0.1186943620178042</v>
+        <v>0.1138952164009112</v>
       </c>
       <c r="J17">
-        <v>0.4836795252225519</v>
+        <v>0.469248291571754</v>
       </c>
       <c r="K17">
-        <v>0.06528189910979229</v>
+        <v>0.07517084282460136</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02373887240356083</v>
+        <v>0.01822323462414579</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03264094955489615</v>
+        <v>0.03644646924829157</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1275964391691395</v>
+        <v>0.1252847380410023</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01290322580645161</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1225806451612903</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="I18">
-        <v>0.1161290322580645</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="J18">
-        <v>0.4903225806451613</v>
+        <v>0.4974874371859296</v>
       </c>
       <c r="K18">
-        <v>0.05161290322580645</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02580645161290323</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="O18">
-        <v>0.05806451612903226</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1225806451612903</v>
+        <v>0.1105527638190955</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02947368421052632</v>
+        <v>0.02722772277227723</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1747368421052632</v>
+        <v>0.1765676567656766</v>
       </c>
       <c r="I19">
-        <v>0.1147368421052632</v>
+        <v>0.1047854785478548</v>
       </c>
       <c r="J19">
-        <v>0.3694736842105263</v>
+        <v>0.3754125412541254</v>
       </c>
       <c r="K19">
-        <v>0.1010526315789474</v>
+        <v>0.1023102310231023</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01684210526315789</v>
+        <v>0.01897689768976898</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07157894736842105</v>
+        <v>0.07178217821782178</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1221052631578947</v>
+        <v>0.1229372937293729</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Ga. Southern_B.xlsx
+++ b/team_specific_matrix/Ga. Southern_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1984536082474227</v>
+        <v>0.2072892938496583</v>
       </c>
       <c r="C2">
-        <v>0.5309278350515464</v>
+        <v>0.5193621867881549</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03350515463917526</v>
+        <v>0.03189066059225513</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1494845360824742</v>
+        <v>0.1503416856492027</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08762886597938144</v>
+        <v>0.09111617312072894</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004672897196261682</v>
+        <v>0.004201680672268907</v>
       </c>
       <c r="C3">
-        <v>0.03271028037383177</v>
+        <v>0.03781512605042017</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04205607476635514</v>
+        <v>0.03781512605042017</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7102803738317757</v>
+        <v>0.7100840336134454</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2102803738317757</v>
+        <v>0.2100840336134454</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02272727272727273</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2727272727272727</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07174887892376682</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0179372197309417</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05381165919282511</v>
+        <v>0.06224066390041494</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2780269058295964</v>
+        <v>0.2697095435684647</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0179372197309417</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1704035874439462</v>
+        <v>0.1784232365145228</v>
       </c>
       <c r="R6">
-        <v>0.05829596412556054</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="S6">
-        <v>0.3318385650224215</v>
+        <v>0.3319502074688797</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1611111111111111</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005555555555555556</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="E7">
-        <v>0.01111111111111111</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="F7">
-        <v>0.02777777777777778</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1666666666666667</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005555555555555556</v>
+        <v>0.004926108374384237</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1388888888888889</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R7">
-        <v>0.09444444444444444</v>
+        <v>0.09852216748768473</v>
       </c>
       <c r="S7">
-        <v>0.3888888888888889</v>
+        <v>0.3891625615763547</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.116710875331565</v>
+        <v>0.1157407407407407</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01856763925729443</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07161803713527852</v>
+        <v>0.06712962962962964</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1352785145888594</v>
+        <v>0.1342592592592593</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007957559681697613</v>
+        <v>0.01157407407407407</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1962864721485411</v>
+        <v>0.2060185185185185</v>
       </c>
       <c r="R8">
-        <v>0.09549071618037135</v>
+        <v>0.09490740740740741</v>
       </c>
       <c r="S8">
-        <v>0.3580901856763926</v>
+        <v>0.349537037037037</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1451612903225807</v>
+        <v>0.1501831501831502</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01612903225806452</v>
+        <v>0.01831501831501832</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06854838709677419</v>
+        <v>0.0695970695970696</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08870967741935484</v>
+        <v>0.08791208791208792</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01612903225806452</v>
+        <v>0.01465201465201465</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.157258064516129</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="R9">
-        <v>0.1169354838709677</v>
+        <v>0.1172161172161172</v>
       </c>
       <c r="S9">
-        <v>0.3911290322580645</v>
+        <v>0.3882783882783883</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1384959046909903</v>
+        <v>0.1411208642808913</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02159344750558451</v>
+        <v>0.02093180283592167</v>
       </c>
       <c r="E10">
-        <v>0.0007446016381236039</v>
+        <v>0.0006752194463200541</v>
       </c>
       <c r="F10">
-        <v>0.05956813104988831</v>
+        <v>0.05671843349088454</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1422189128816083</v>
+        <v>0.1411208642808913</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01116902457185406</v>
+        <v>0.01147873058744092</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.197319434102755</v>
+        <v>0.1971640783254558</v>
       </c>
       <c r="R10">
-        <v>0.08116157855547282</v>
+        <v>0.07900067521944631</v>
       </c>
       <c r="S10">
-        <v>0.347728965003723</v>
+        <v>0.3517893315327482</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.003787878787878788</v>
+        <v>0.003424657534246575</v>
       </c>
       <c r="G11">
-        <v>0.1590909090909091</v>
+        <v>0.1506849315068493</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.06818181818181818</v>
+        <v>0.06506849315068493</v>
       </c>
       <c r="K11">
-        <v>0.1893939393939394</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="L11">
-        <v>0.5454545454545454</v>
+        <v>0.571917808219178</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.03409090909090909</v>
+        <v>0.03082191780821918</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7707006369426752</v>
+        <v>0.7722222222222223</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1847133757961783</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="K12">
-        <v>0.006369426751592357</v>
+        <v>0.005555555555555556</v>
       </c>
       <c r="L12">
-        <v>0.01273885350318471</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02547770700636943</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6097560975609756</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3170731707317073</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07317073170731707</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02777777777777778</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.15</v>
+        <v>0.1557788944723618</v>
       </c>
       <c r="I15">
-        <v>0.1</v>
+        <v>0.1005025125628141</v>
       </c>
       <c r="J15">
-        <v>0.4388888888888889</v>
+        <v>0.4170854271356784</v>
       </c>
       <c r="K15">
-        <v>0.04444444444444445</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01666666666666667</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04444444444444445</v>
+        <v>0.04522613065326633</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1777777777777778</v>
+        <v>0.185929648241206</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03418803418803419</v>
+        <v>0.03053435114503817</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1837606837606838</v>
+        <v>0.1755725190839695</v>
       </c>
       <c r="I16">
-        <v>0.09829059829059829</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="J16">
-        <v>0.3632478632478632</v>
+        <v>0.3740458015267176</v>
       </c>
       <c r="K16">
-        <v>0.1153846153846154</v>
+        <v>0.1106870229007634</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.008547008547008548</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05128205128205128</v>
+        <v>0.05343511450381679</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1452991452991453</v>
+        <v>0.1412213740458015</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009111617312072893</v>
+        <v>0.01016260162601626</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1526195899772209</v>
+        <v>0.1483739837398374</v>
       </c>
       <c r="I17">
-        <v>0.1138952164009112</v>
+        <v>0.1158536585365854</v>
       </c>
       <c r="J17">
-        <v>0.469248291571754</v>
+        <v>0.4634146341463415</v>
       </c>
       <c r="K17">
-        <v>0.07517084282460136</v>
+        <v>0.07520325203252033</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01822323462414579</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03644646924829157</v>
+        <v>0.03861788617886179</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1252847380410023</v>
+        <v>0.1239837398373984</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01005025125628141</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1155778894472362</v>
+        <v>0.1330275229357798</v>
       </c>
       <c r="I18">
-        <v>0.1256281407035176</v>
+        <v>0.1284403669724771</v>
       </c>
       <c r="J18">
-        <v>0.4974874371859296</v>
+        <v>0.481651376146789</v>
       </c>
       <c r="K18">
-        <v>0.05527638190954774</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02512562814070352</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="N18">
-        <v>0.005025125628140704</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="O18">
-        <v>0.05527638190954774</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1105527638190955</v>
+        <v>0.1146788990825688</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02722772277227723</v>
+        <v>0.02596439169139466</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1765676567656766</v>
+        <v>0.1862017804154303</v>
       </c>
       <c r="I19">
-        <v>0.1047854785478548</v>
+        <v>0.1001483679525223</v>
       </c>
       <c r="J19">
-        <v>0.3754125412541254</v>
+        <v>0.3738872403560831</v>
       </c>
       <c r="K19">
-        <v>0.1023102310231023</v>
+        <v>0.1038575667655786</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01897689768976898</v>
+        <v>0.01928783382789317</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.07178217821782178</v>
+        <v>0.06973293768545995</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1229372937293729</v>
+        <v>0.120919881305638</v>
       </c>
     </row>
   </sheetData>
